--- a/data_rosemount/Leaf Phyllochron 1-4.xlsx
+++ b/data_rosemount/Leaf Phyllochron 1-4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Mantoani\Desktop\Postdoc PhenoGrass\Data Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11433581-149A-4992-8228-F11EC70700B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35DD50-4AE6-4C1B-832D-D7C6E92B8DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A2797BF-C750-4AE3-BF01-EB39CA09B917}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="25">
   <si>
     <t>Plant ID</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
   </si>
   <si>
     <t>Moy</t>
@@ -495,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB49F33-E208-4071-82E8-F6BDF1CCB2D9}">
-  <dimension ref="A1:AS337"/>
+  <dimension ref="A1:AR337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,11 +508,11 @@
     <col min="3" max="3" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.81640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="2"/>
+    <col min="6" max="9" width="14.81640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,19 +540,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -572,16 +566,19 @@
       <c r="H2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -598,18 +595,19 @@
       <c r="H3" s="2">
         <v>25</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -626,18 +624,19 @@
       <c r="H4" s="2">
         <v>32</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -654,18 +653,19 @@
       <c r="H5" s="2">
         <v>32</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -682,18 +682,19 @@
       <c r="H6" s="2">
         <v>25</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -710,18 +711,19 @@
       <c r="H7" s="3">
         <v>32</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -738,18 +740,19 @@
       <c r="H8" s="2">
         <v>32</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -766,18 +769,19 @@
       <c r="H9" s="2">
         <v>25</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I9" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -794,18 +798,19 @@
       <c r="H10" s="2">
         <v>25</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -822,18 +827,19 @@
       <c r="H11" s="3">
         <v>32</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -850,18 +856,19 @@
       <c r="H12" s="2">
         <v>25</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -878,18 +885,19 @@
       <c r="H13" s="2">
         <v>25</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -906,18 +914,19 @@
       <c r="H14" s="2">
         <v>32</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -934,18 +943,19 @@
       <c r="H15" s="2">
         <v>25</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -962,18 +972,19 @@
       <c r="H16" s="2">
         <v>32</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -990,18 +1001,19 @@
       <c r="H17" s="2">
         <v>25</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I17" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1018,18 +1030,19 @@
       <c r="H18" s="2">
         <v>32</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1046,18 +1059,19 @@
       <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1074,18 +1088,19 @@
       <c r="H20" s="2">
         <v>32</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1102,18 +1117,19 @@
       <c r="H21" s="2">
         <v>28</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1130,18 +1146,19 @@
       <c r="H22" s="2">
         <v>28</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I22" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1158,18 +1175,19 @@
       <c r="H23" s="2">
         <v>32</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I23" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1186,18 +1204,19 @@
       <c r="H24" s="2">
         <v>28</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I24" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1214,18 +1233,19 @@
       <c r="H25" s="2">
         <v>25</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -1242,18 +1262,19 @@
       <c r="H26" s="3">
         <v>25</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I26" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1270,18 +1291,19 @@
       <c r="H27" s="2">
         <v>25</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I27" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1298,18 +1320,19 @@
       <c r="H28" s="2">
         <v>32</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I28" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1326,18 +1349,19 @@
       <c r="H29" s="2">
         <v>32</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I29" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1354,18 +1378,19 @@
       <c r="H30" s="2">
         <v>32</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I30" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1382,18 +1407,19 @@
       <c r="H31" s="2">
         <v>28</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1410,18 +1436,19 @@
       <c r="H32" s="2">
         <v>25</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I32" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1438,18 +1465,19 @@
       <c r="H33" s="2">
         <v>32</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I33" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -1466,18 +1494,19 @@
       <c r="H34" s="2">
         <v>25</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I34" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1494,18 +1523,19 @@
       <c r="H35" s="2">
         <v>32</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I35" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -1522,18 +1552,19 @@
       <c r="H36" s="2">
         <v>32</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I36" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1550,18 +1581,19 @@
       <c r="H37" s="2">
         <v>25</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I37" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1578,18 +1610,19 @@
       <c r="H38" s="2">
         <v>32</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I38" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1606,18 +1639,19 @@
       <c r="H39" s="2">
         <v>25</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I39" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1634,18 +1668,19 @@
       <c r="H40" s="2">
         <v>32</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I40" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -1662,18 +1697,19 @@
       <c r="H41" s="2">
         <v>32</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I41" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1690,18 +1726,19 @@
       <c r="H42" s="2">
         <v>32</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I42" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1718,18 +1755,19 @@
       <c r="H43" s="2">
         <v>28</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I43" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1746,18 +1784,19 @@
       <c r="H44" s="2">
         <v>28</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I44" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1774,18 +1813,19 @@
       <c r="H45" s="2">
         <v>28</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I45" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -1802,18 +1842,19 @@
       <c r="H46" s="2">
         <v>32</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I46" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1830,18 +1871,19 @@
       <c r="H47" s="2">
         <v>25</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I47" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1858,18 +1900,19 @@
       <c r="H48" s="2">
         <v>32</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I48" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -1886,18 +1929,19 @@
       <c r="H49" s="2">
         <v>28</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I49" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1914,18 +1958,19 @@
       <c r="H50" s="2">
         <v>32</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I50" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1942,18 +1987,19 @@
       <c r="H51" s="2">
         <v>32</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I51" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -1970,18 +2016,19 @@
       <c r="H52" s="2">
         <v>28</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I52" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -1998,18 +2045,19 @@
       <c r="H53" s="2">
         <v>32</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I53" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -2026,18 +2074,19 @@
       <c r="H54" s="3">
         <v>25</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I54" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -2054,18 +2103,19 @@
       <c r="H55" s="2">
         <v>28</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I55" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -2082,18 +2132,19 @@
       <c r="H56" s="2">
         <v>25</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I56" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -2110,18 +2161,19 @@
       <c r="H57" s="2">
         <v>32</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I57" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -2138,18 +2190,19 @@
       <c r="H58" s="3">
         <v>32</v>
       </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I58" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2166,18 +2219,19 @@
       <c r="H59" s="2">
         <v>32</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I59" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -2194,18 +2248,19 @@
       <c r="H60" s="2">
         <v>32</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I60" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -2222,18 +2277,19 @@
       <c r="H61" s="2">
         <v>32</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I61" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -2250,18 +2306,19 @@
       <c r="H62" s="2">
         <v>28</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I62" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -2278,18 +2335,19 @@
       <c r="H63" s="2">
         <v>32</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I63" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -2306,18 +2364,19 @@
       <c r="H64" s="2">
         <v>28</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I64" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -2334,18 +2393,19 @@
       <c r="H65" s="2">
         <v>32</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I65" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -2362,18 +2422,19 @@
       <c r="H66" s="2">
         <v>25</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I66" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -2390,18 +2451,19 @@
       <c r="H67" s="2">
         <v>28</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I67" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -2418,18 +2480,19 @@
       <c r="H68" s="3">
         <v>25</v>
       </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I68" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -2446,18 +2509,19 @@
       <c r="H69" s="2">
         <v>32</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I69" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
@@ -2474,18 +2538,19 @@
       <c r="H70" s="2">
         <v>28</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I70" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -2502,18 +2567,19 @@
       <c r="H71" s="2">
         <v>32</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I71" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2530,18 +2596,19 @@
       <c r="H72" s="2">
         <v>32</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I72" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
@@ -2558,18 +2625,19 @@
       <c r="H73" s="2">
         <v>25</v>
       </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I73" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
@@ -2586,18 +2654,19 @@
       <c r="H74" s="2">
         <v>32</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I74" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -2614,18 +2683,19 @@
       <c r="H75" s="2">
         <v>32</v>
       </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I75" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -2642,18 +2712,19 @@
       <c r="H76" s="2">
         <v>28</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I76" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -2670,18 +2741,19 @@
       <c r="H77" s="2">
         <v>28</v>
       </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I77" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
@@ -2698,18 +2770,19 @@
       <c r="H78" s="2">
         <v>28</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I78" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -2726,18 +2799,19 @@
       <c r="H79" s="2">
         <v>32</v>
       </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I79" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2754,18 +2828,19 @@
       <c r="H80" s="2">
         <v>25</v>
       </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I80" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -2782,18 +2857,19 @@
       <c r="H81" s="3">
         <v>28</v>
       </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I81" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -2810,18 +2886,19 @@
       <c r="H82" s="2">
         <v>28</v>
       </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I82" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2838,18 +2915,19 @@
       <c r="H83" s="2">
         <v>28</v>
       </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I83" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2866,18 +2944,19 @@
       <c r="H84" s="2">
         <v>32</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I84" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -2894,18 +2973,19 @@
       <c r="H85" s="2">
         <v>32</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I85" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="3">
         <v>7</v>
@@ -2922,18 +3002,19 @@
       <c r="H86" s="3">
         <v>28</v>
       </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I86" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
         <v>7</v>
@@ -2950,18 +3031,19 @@
       <c r="H87" s="2">
         <v>32</v>
       </c>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I87" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2">
         <v>7</v>
@@ -2978,18 +3060,19 @@
       <c r="H88" s="2">
         <v>28</v>
       </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I88" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
@@ -3006,18 +3089,19 @@
       <c r="H89" s="2">
         <v>32</v>
       </c>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I89" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2">
         <v>7</v>
@@ -3034,18 +3118,19 @@
       <c r="H90" s="2">
         <v>32</v>
       </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I90" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2">
         <v>7</v>
@@ -3062,18 +3147,19 @@
       <c r="H91" s="2">
         <v>25</v>
       </c>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I91" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2">
         <v>7</v>
@@ -3090,18 +3176,19 @@
       <c r="H92" s="2">
         <v>32</v>
       </c>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I92" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2">
         <v>7</v>
@@ -3118,18 +3205,19 @@
       <c r="H93" s="2">
         <v>28</v>
       </c>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I93" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2">
         <v>7</v>
@@ -3146,18 +3234,19 @@
       <c r="H94" s="2">
         <v>25</v>
       </c>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I94" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2">
         <v>7</v>
@@ -3174,18 +3263,19 @@
       <c r="H95" s="2">
         <v>28</v>
       </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="3">
         <v>7</v>
@@ -3202,18 +3292,19 @@
       <c r="H96" s="3">
         <v>25</v>
       </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I96" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2">
         <v>7</v>
@@ -3230,18 +3321,19 @@
       <c r="H97" s="2">
         <v>25</v>
       </c>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I97" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2">
         <v>7</v>
@@ -3258,18 +3350,19 @@
       <c r="H98" s="2">
         <v>25</v>
       </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I98" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2">
         <v>7</v>
@@ -3286,18 +3379,19 @@
       <c r="H99" s="2">
         <v>25</v>
       </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I99" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2">
         <v>7</v>
@@ -3314,18 +3408,19 @@
       <c r="H100" s="2">
         <v>32</v>
       </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I100" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2">
         <v>7</v>
@@ -3342,18 +3437,19 @@
       <c r="H101" s="2">
         <v>28</v>
       </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I101" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2">
         <v>7</v>
@@ -3370,18 +3466,19 @@
       <c r="H102" s="2">
         <v>32</v>
       </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I102" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2">
         <v>7</v>
@@ -3398,18 +3495,19 @@
       <c r="H103" s="2">
         <v>32</v>
       </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I103" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2">
         <v>7</v>
@@ -3426,18 +3524,19 @@
       <c r="H104" s="2">
         <v>28</v>
       </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I104" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2">
         <v>7</v>
@@ -3454,18 +3553,19 @@
       <c r="H105" s="2">
         <v>32</v>
       </c>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I105" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2">
         <v>7</v>
@@ -3482,18 +3582,19 @@
       <c r="H106" s="2">
         <v>28</v>
       </c>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I106" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="2">
         <v>7</v>
@@ -3510,18 +3611,19 @@
       <c r="H107" s="2">
         <v>25</v>
       </c>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I107" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="2">
         <v>7</v>
@@ -3538,18 +3640,19 @@
       <c r="H108" s="2">
         <v>32</v>
       </c>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I108" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2">
         <v>7</v>
@@ -3566,18 +3669,19 @@
       <c r="H109" s="2">
         <v>25</v>
       </c>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I109" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
         <v>7</v>
@@ -3594,18 +3698,19 @@
       <c r="H110" s="2">
         <v>25</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I110" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="2">
         <v>7</v>
@@ -3622,18 +3727,19 @@
       <c r="H111" s="2">
         <v>25</v>
       </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I111" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="2">
         <v>7</v>
@@ -3650,8 +3756,10 @@
       <c r="H112" s="2">
         <v>25</v>
       </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="I112" s="2">
+        <v>27</v>
+      </c>
+      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -3686,17 +3794,16 @@
       <c r="AP112" s="2"/>
       <c r="AQ112" s="2"/>
       <c r="AR112" s="2"/>
-      <c r="AS112" s="2"/>
-    </row>
-    <row r="113" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" s="2">
         <v>7</v>
@@ -3713,8 +3820,10 @@
       <c r="H113" s="2">
         <v>32</v>
       </c>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
+      <c r="I113" s="2">
+        <v>34</v>
+      </c>
+      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -3749,17 +3858,16 @@
       <c r="AP113" s="2"/>
       <c r="AQ113" s="2"/>
       <c r="AR113" s="2"/>
-      <c r="AS113" s="2"/>
-    </row>
-    <row r="114" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2">
         <v>7</v>
@@ -3776,8 +3884,10 @@
       <c r="H114" s="2">
         <v>32</v>
       </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="I114" s="2">
+        <v>27</v>
+      </c>
+      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -3812,17 +3922,16 @@
       <c r="AP114" s="2"/>
       <c r="AQ114" s="2"/>
       <c r="AR114" s="2"/>
-      <c r="AS114" s="2"/>
-    </row>
-    <row r="115" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="2">
         <v>7</v>
@@ -3839,8 +3948,10 @@
       <c r="H115" s="2">
         <v>32</v>
       </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="I115" s="2">
+        <v>30</v>
+      </c>
+      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -3875,17 +3986,16 @@
       <c r="AP115" s="2"/>
       <c r="AQ115" s="2"/>
       <c r="AR115" s="2"/>
-      <c r="AS115" s="2"/>
-    </row>
-    <row r="116" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="2">
         <v>7</v>
@@ -3902,8 +4012,10 @@
       <c r="H116" s="2">
         <v>32</v>
       </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="I116" s="2">
+        <v>34</v>
+      </c>
+      <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -3938,17 +4050,16 @@
       <c r="AP116" s="2"/>
       <c r="AQ116" s="2"/>
       <c r="AR116" s="2"/>
-      <c r="AS116" s="2"/>
-    </row>
-    <row r="117" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="2">
         <v>7</v>
@@ -3965,8 +4076,10 @@
       <c r="H117" s="2">
         <v>28</v>
       </c>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="I117" s="2">
+        <v>27</v>
+      </c>
+      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -4001,17 +4114,16 @@
       <c r="AP117" s="2"/>
       <c r="AQ117" s="2"/>
       <c r="AR117" s="2"/>
-      <c r="AS117" s="2"/>
-    </row>
-    <row r="118" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="2">
         <v>7</v>
@@ -4028,8 +4140,10 @@
       <c r="H118" s="2">
         <v>32</v>
       </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="I118" s="2">
+        <v>34</v>
+      </c>
+      <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -4064,17 +4178,16 @@
       <c r="AP118" s="2"/>
       <c r="AQ118" s="2"/>
       <c r="AR118" s="2"/>
-      <c r="AS118" s="2"/>
-    </row>
-    <row r="119" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="2">
         <v>7</v>
@@ -4091,8 +4204,10 @@
       <c r="H119" s="2">
         <v>32</v>
       </c>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="I119" s="2">
+        <v>30</v>
+      </c>
+      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -4127,17 +4242,16 @@
       <c r="AP119" s="2"/>
       <c r="AQ119" s="2"/>
       <c r="AR119" s="2"/>
-      <c r="AS119" s="2"/>
-    </row>
-    <row r="120" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" s="2">
         <v>7</v>
@@ -4154,8 +4268,10 @@
       <c r="H120" s="2">
         <v>25</v>
       </c>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="I120" s="2">
+        <v>30</v>
+      </c>
+      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -4190,17 +4306,16 @@
       <c r="AP120" s="2"/>
       <c r="AQ120" s="2"/>
       <c r="AR120" s="2"/>
-      <c r="AS120" s="2"/>
-    </row>
-    <row r="121" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2">
         <v>7</v>
@@ -4217,8 +4332,10 @@
       <c r="H121" s="2">
         <v>28</v>
       </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="I121" s="2">
+        <v>27</v>
+      </c>
+      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -4253,17 +4370,16 @@
       <c r="AP121" s="2"/>
       <c r="AQ121" s="2"/>
       <c r="AR121" s="2"/>
-      <c r="AS121" s="2"/>
-    </row>
-    <row r="122" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2">
         <v>7</v>
@@ -4280,8 +4396,10 @@
       <c r="H122" s="2">
         <v>32</v>
       </c>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="I122" s="2">
+        <v>34</v>
+      </c>
+      <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -4316,17 +4434,16 @@
       <c r="AP122" s="2"/>
       <c r="AQ122" s="2"/>
       <c r="AR122" s="2"/>
-      <c r="AS122" s="2"/>
-    </row>
-    <row r="123" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="3">
         <v>7</v>
@@ -4343,18 +4460,19 @@
       <c r="H123" s="3">
         <v>32</v>
       </c>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I123" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="2">
         <v>7</v>
@@ -4371,8 +4489,10 @@
       <c r="H124" s="2">
         <v>32</v>
       </c>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="I124" s="2">
+        <v>34</v>
+      </c>
+      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -4407,17 +4527,16 @@
       <c r="AP124" s="2"/>
       <c r="AQ124" s="2"/>
       <c r="AR124" s="2"/>
-      <c r="AS124" s="2"/>
-    </row>
-    <row r="125" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2">
         <v>7</v>
@@ -4434,8 +4553,10 @@
       <c r="H125" s="2">
         <v>28</v>
       </c>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="I125" s="2">
+        <v>30</v>
+      </c>
+      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -4470,17 +4591,16 @@
       <c r="AP125" s="2"/>
       <c r="AQ125" s="2"/>
       <c r="AR125" s="2"/>
-      <c r="AS125" s="2"/>
-    </row>
-    <row r="126" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2">
         <v>7</v>
@@ -4497,8 +4617,10 @@
       <c r="H126" s="2">
         <v>32</v>
       </c>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="I126" s="2">
+        <v>30</v>
+      </c>
+      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -4533,17 +4655,16 @@
       <c r="AP126" s="2"/>
       <c r="AQ126" s="2"/>
       <c r="AR126" s="2"/>
-      <c r="AS126" s="2"/>
-    </row>
-    <row r="127" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2">
         <v>7</v>
@@ -4560,8 +4681,10 @@
       <c r="H127" s="2">
         <v>28</v>
       </c>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
+      <c r="I127" s="2">
+        <v>30</v>
+      </c>
+      <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -4596,17 +4719,16 @@
       <c r="AP127" s="2"/>
       <c r="AQ127" s="2"/>
       <c r="AR127" s="2"/>
-      <c r="AS127" s="2"/>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="2">
         <v>7</v>
@@ -4623,18 +4745,19 @@
       <c r="H128" s="2">
         <v>25</v>
       </c>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I128" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="2">
         <v>7</v>
@@ -4651,18 +4774,19 @@
       <c r="H129" s="2">
         <v>25</v>
       </c>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I129" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="2">
         <v>7</v>
@@ -4679,18 +4803,19 @@
       <c r="H130" s="2">
         <v>32</v>
       </c>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I130" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" s="2">
         <v>7</v>
@@ -4707,18 +4832,19 @@
       <c r="H131" s="2">
         <v>32</v>
       </c>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I131" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="2">
         <v>7</v>
@@ -4735,18 +4861,19 @@
       <c r="H132" s="2">
         <v>28</v>
       </c>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I132" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="2">
         <v>7</v>
@@ -4763,18 +4890,19 @@
       <c r="H133" s="2">
         <v>25</v>
       </c>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I133" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="2">
         <v>7</v>
@@ -4791,18 +4919,19 @@
       <c r="H134" s="2">
         <v>25</v>
       </c>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I134" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2">
         <v>7</v>
@@ -4819,18 +4948,19 @@
       <c r="H135" s="2">
         <v>28</v>
       </c>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I135" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="2">
         <v>7</v>
@@ -4847,18 +4977,19 @@
       <c r="H136" s="2">
         <v>32</v>
       </c>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I136" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="2">
         <v>7</v>
@@ -4875,18 +5006,19 @@
       <c r="H137" s="2">
         <v>28</v>
       </c>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-    </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I137" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="3">
         <v>7</v>
@@ -4903,18 +5035,19 @@
       <c r="H138" s="3">
         <v>28</v>
       </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I138" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="2">
         <v>7</v>
@@ -4931,18 +5064,19 @@
       <c r="H139" s="2">
         <v>25</v>
       </c>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I139" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="2">
         <v>7</v>
@@ -4959,18 +5093,19 @@
       <c r="H140" s="2">
         <v>25</v>
       </c>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I140" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="2">
         <v>7</v>
@@ -4987,18 +5122,19 @@
       <c r="H141" s="2">
         <v>25</v>
       </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I141" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2">
         <v>7</v>
@@ -5015,18 +5151,19 @@
       <c r="H142" s="2">
         <v>28</v>
       </c>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I142" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="2">
         <v>7</v>
@@ -5043,18 +5180,19 @@
       <c r="H143" s="2">
         <v>28</v>
       </c>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I143" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="2">
         <v>7</v>
@@ -5071,18 +5209,19 @@
       <c r="H144" s="2">
         <v>28</v>
       </c>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I144" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" s="2">
         <v>7</v>
@@ -5099,18 +5238,19 @@
       <c r="H145" s="2">
         <v>28</v>
       </c>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I145" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="2">
         <v>7</v>
@@ -5127,18 +5267,19 @@
       <c r="H146" s="2">
         <v>28</v>
       </c>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I146" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="2">
         <v>7</v>
@@ -5155,18 +5296,19 @@
       <c r="H147" s="2">
         <v>25</v>
       </c>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I147" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="2">
         <v>7</v>
@@ -5183,18 +5325,19 @@
       <c r="H148" s="2">
         <v>28</v>
       </c>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I148" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="2">
         <v>7</v>
@@ -5211,18 +5354,19 @@
       <c r="H149" s="2">
         <v>28</v>
       </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I149" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="2">
         <v>7</v>
@@ -5239,18 +5383,19 @@
       <c r="H150" s="2">
         <v>28</v>
       </c>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I150" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151" s="2">
         <v>7</v>
@@ -5267,18 +5412,19 @@
       <c r="H151" s="2">
         <v>25</v>
       </c>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I151" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="2">
         <v>7</v>
@@ -5295,18 +5441,19 @@
       <c r="H152" s="2">
         <v>28</v>
       </c>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I152" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="2">
         <v>7</v>
@@ -5323,18 +5470,19 @@
       <c r="H153" s="2">
         <v>28</v>
       </c>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I153" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="2">
         <v>7</v>
@@ -5351,18 +5499,19 @@
       <c r="H154" s="2">
         <v>28</v>
       </c>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I154" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="2">
         <v>7</v>
@@ -5379,18 +5528,19 @@
       <c r="H155" s="2">
         <v>28</v>
       </c>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-    </row>
-    <row r="156" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I155" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="3">
         <v>7</v>
@@ -5407,18 +5557,19 @@
       <c r="H156" s="3">
         <v>28</v>
       </c>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I156" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="2">
         <v>7</v>
@@ -5435,18 +5586,19 @@
       <c r="H157" s="2">
         <v>28</v>
       </c>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I157" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="2">
         <v>7</v>
@@ -5463,18 +5615,19 @@
       <c r="H158" s="2">
         <v>28</v>
       </c>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I158" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2">
         <v>7</v>
@@ -5491,18 +5644,19 @@
       <c r="H159" s="2">
         <v>28</v>
       </c>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I159" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="2">
         <v>7</v>
@@ -5519,18 +5673,19 @@
       <c r="H160" s="2">
         <v>28</v>
       </c>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-    </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I160" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="2">
         <v>7</v>
@@ -5547,18 +5702,19 @@
       <c r="H161" s="2">
         <v>28</v>
       </c>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-    </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I161" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="2">
         <v>7</v>
@@ -5575,18 +5731,19 @@
       <c r="H162" s="2">
         <v>28</v>
       </c>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-    </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I162" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D163" s="2">
         <v>7</v>
@@ -5603,18 +5760,19 @@
       <c r="H163" s="2">
         <v>32</v>
       </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I163" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164" s="2">
         <v>7</v>
@@ -5631,18 +5789,19 @@
       <c r="H164" s="2">
         <v>28</v>
       </c>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I164" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165" s="2">
         <v>7</v>
@@ -5659,18 +5818,19 @@
       <c r="H165" s="2">
         <v>28</v>
       </c>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-    </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I165" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166" s="2">
         <v>7</v>
@@ -5687,18 +5847,19 @@
       <c r="H166" s="2">
         <v>25</v>
       </c>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-    </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I166" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2">
         <v>7</v>
@@ -5715,18 +5876,19 @@
       <c r="H167" s="2">
         <v>28</v>
       </c>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-    </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I167" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D168" s="2">
         <v>7</v>
@@ -5743,18 +5905,19 @@
       <c r="H168" s="2">
         <v>28</v>
       </c>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-    </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I168" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2">
         <v>7</v>
@@ -5771,18 +5934,19 @@
       <c r="H169" s="2">
         <v>25</v>
       </c>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I169" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D170" s="2">
         <v>2</v>
@@ -5799,18 +5963,19 @@
       <c r="H170" s="2">
         <v>28</v>
       </c>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-    </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I170" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" s="2">
         <v>2</v>
@@ -5827,18 +5992,19 @@
       <c r="H171" s="2">
         <v>25</v>
       </c>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I171" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172" s="2">
         <v>2</v>
@@ -5855,18 +6021,19 @@
       <c r="H172" s="2">
         <v>28</v>
       </c>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-    </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I172" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" s="2">
         <v>2</v>
@@ -5883,18 +6050,19 @@
       <c r="H173" s="2">
         <v>32</v>
       </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I173" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" s="2">
         <v>2</v>
@@ -5911,18 +6079,19 @@
       <c r="H174" s="2">
         <v>28</v>
       </c>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-    </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I174" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" s="2">
         <v>2</v>
@@ -5939,18 +6108,19 @@
       <c r="H175" s="2">
         <v>28</v>
       </c>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-    </row>
-    <row r="176" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I175" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2">
         <v>2</v>
@@ -5967,8 +6137,10 @@
       <c r="H176" s="2">
         <v>28</v>
       </c>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
+      <c r="I176" s="2">
+        <v>30</v>
+      </c>
+      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -6003,17 +6175,16 @@
       <c r="AP176" s="2"/>
       <c r="AQ176" s="2"/>
       <c r="AR176" s="2"/>
-      <c r="AS176" s="2"/>
-    </row>
-    <row r="177" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" s="2">
         <v>2</v>
@@ -6030,8 +6201,10 @@
       <c r="H177" s="2">
         <v>32</v>
       </c>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
+      <c r="I177" s="2">
+        <v>30</v>
+      </c>
+      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -6066,17 +6239,16 @@
       <c r="AP177" s="2"/>
       <c r="AQ177" s="2"/>
       <c r="AR177" s="2"/>
-      <c r="AS177" s="2"/>
-    </row>
-    <row r="178" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" s="2">
         <v>2</v>
@@ -6093,8 +6265,10 @@
       <c r="H178" s="2">
         <v>25</v>
       </c>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
+      <c r="I178" s="2">
+        <v>30</v>
+      </c>
+      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -6129,17 +6303,16 @@
       <c r="AP178" s="2"/>
       <c r="AQ178" s="2"/>
       <c r="AR178" s="2"/>
-      <c r="AS178" s="2"/>
-    </row>
-    <row r="179" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2">
         <v>2</v>
@@ -6156,8 +6329,10 @@
       <c r="H179" s="2">
         <v>25</v>
       </c>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+      <c r="I179" s="2">
+        <v>30</v>
+      </c>
+      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -6192,17 +6367,16 @@
       <c r="AP179" s="2"/>
       <c r="AQ179" s="2"/>
       <c r="AR179" s="2"/>
-      <c r="AS179" s="2"/>
-    </row>
-    <row r="180" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D180" s="2">
         <v>2</v>
@@ -6219,8 +6393,10 @@
       <c r="H180" s="2">
         <v>28</v>
       </c>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
+      <c r="I180" s="2">
+        <v>27</v>
+      </c>
+      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -6255,17 +6431,16 @@
       <c r="AP180" s="2"/>
       <c r="AQ180" s="2"/>
       <c r="AR180" s="2"/>
-      <c r="AS180" s="2"/>
-    </row>
-    <row r="181" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" s="2">
         <v>2</v>
@@ -6282,8 +6457,10 @@
       <c r="H181" s="2">
         <v>28</v>
       </c>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
+      <c r="I181" s="2">
+        <v>30</v>
+      </c>
+      <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -6318,17 +6495,16 @@
       <c r="AP181" s="2"/>
       <c r="AQ181" s="2"/>
       <c r="AR181" s="2"/>
-      <c r="AS181" s="2"/>
-    </row>
-    <row r="182" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" s="2">
         <v>2</v>
@@ -6345,8 +6521,10 @@
       <c r="H182" s="2">
         <v>25</v>
       </c>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
+      <c r="I182" s="2">
+        <v>27</v>
+      </c>
+      <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -6381,17 +6559,16 @@
       <c r="AP182" s="2"/>
       <c r="AQ182" s="2"/>
       <c r="AR182" s="2"/>
-      <c r="AS182" s="2"/>
-    </row>
-    <row r="183" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" s="2">
         <v>2</v>
@@ -6408,8 +6585,10 @@
       <c r="H183" s="2">
         <v>25</v>
       </c>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+      <c r="I183" s="2">
+        <v>27</v>
+      </c>
+      <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -6444,17 +6623,16 @@
       <c r="AP183" s="2"/>
       <c r="AQ183" s="2"/>
       <c r="AR183" s="2"/>
-      <c r="AS183" s="2"/>
-    </row>
-    <row r="184" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" s="3">
         <v>2</v>
@@ -6471,18 +6649,19 @@
       <c r="H184" s="3">
         <v>28</v>
       </c>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I184" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" s="2">
         <v>2</v>
@@ -6499,8 +6678,10 @@
       <c r="H185" s="2">
         <v>32</v>
       </c>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+      <c r="I185" s="2">
+        <v>30</v>
+      </c>
+      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -6535,17 +6716,16 @@
       <c r="AP185" s="2"/>
       <c r="AQ185" s="2"/>
       <c r="AR185" s="2"/>
-      <c r="AS185" s="2"/>
-    </row>
-    <row r="186" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" s="2">
         <v>2</v>
@@ -6562,8 +6742,10 @@
       <c r="H186" s="2">
         <v>25</v>
       </c>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+      <c r="I186" s="2">
+        <v>27</v>
+      </c>
+      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -6598,17 +6780,16 @@
       <c r="AP186" s="2"/>
       <c r="AQ186" s="2"/>
       <c r="AR186" s="2"/>
-      <c r="AS186" s="2"/>
-    </row>
-    <row r="187" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" s="2">
         <v>2</v>
@@ -6625,8 +6806,10 @@
       <c r="H187" s="2">
         <v>32</v>
       </c>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
+      <c r="I187" s="2">
+        <v>27</v>
+      </c>
+      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -6661,17 +6844,16 @@
       <c r="AP187" s="2"/>
       <c r="AQ187" s="2"/>
       <c r="AR187" s="2"/>
-      <c r="AS187" s="2"/>
-    </row>
-    <row r="188" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" s="2">
         <v>2</v>
@@ -6688,8 +6870,10 @@
       <c r="H188" s="2">
         <v>25</v>
       </c>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
+      <c r="I188" s="2">
+        <v>23</v>
+      </c>
+      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
@@ -6724,17 +6908,16 @@
       <c r="AP188" s="2"/>
       <c r="AQ188" s="2"/>
       <c r="AR188" s="2"/>
-      <c r="AS188" s="2"/>
-    </row>
-    <row r="189" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" s="2">
         <v>2</v>
@@ -6751,8 +6934,10 @@
       <c r="H189" s="2">
         <v>32</v>
       </c>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
+      <c r="I189" s="2">
+        <v>30</v>
+      </c>
+      <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -6787,17 +6972,16 @@
       <c r="AP189" s="2"/>
       <c r="AQ189" s="2"/>
       <c r="AR189" s="2"/>
-      <c r="AS189" s="2"/>
-    </row>
-    <row r="190" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" s="2">
         <v>2</v>
@@ -6814,8 +6998,10 @@
       <c r="H190" s="2">
         <v>32</v>
       </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="I190" s="2">
+        <v>30</v>
+      </c>
+      <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
@@ -6850,17 +7036,16 @@
       <c r="AP190" s="2"/>
       <c r="AQ190" s="2"/>
       <c r="AR190" s="2"/>
-      <c r="AS190" s="2"/>
-    </row>
-    <row r="191" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" s="2">
         <v>2</v>
@@ -6877,8 +7062,10 @@
       <c r="H191" s="2">
         <v>25</v>
       </c>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
+      <c r="I191" s="2">
+        <v>30</v>
+      </c>
+      <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -6913,17 +7100,16 @@
       <c r="AP191" s="2"/>
       <c r="AQ191" s="2"/>
       <c r="AR191" s="2"/>
-      <c r="AS191" s="2"/>
-    </row>
-    <row r="192" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2">
         <v>2</v>
@@ -6940,8 +7126,10 @@
       <c r="H192" s="2">
         <v>28</v>
       </c>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
+      <c r="I192" s="2">
+        <v>30</v>
+      </c>
+      <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -6976,17 +7164,16 @@
       <c r="AP192" s="2"/>
       <c r="AQ192" s="2"/>
       <c r="AR192" s="2"/>
-      <c r="AS192" s="2"/>
-    </row>
-    <row r="193" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" s="2">
         <v>2</v>
@@ -7003,8 +7190,10 @@
       <c r="H193" s="2">
         <v>28</v>
       </c>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
+      <c r="I193" s="2">
+        <v>30</v>
+      </c>
+      <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -7039,17 +7228,16 @@
       <c r="AP193" s="2"/>
       <c r="AQ193" s="2"/>
       <c r="AR193" s="2"/>
-      <c r="AS193" s="2"/>
-    </row>
-    <row r="194" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" s="2">
         <v>2</v>
@@ -7066,8 +7254,10 @@
       <c r="H194" s="2">
         <v>28</v>
       </c>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="I194" s="2">
+        <v>30</v>
+      </c>
+      <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
@@ -7102,17 +7292,16 @@
       <c r="AP194" s="2"/>
       <c r="AQ194" s="2"/>
       <c r="AR194" s="2"/>
-      <c r="AS194" s="2"/>
-    </row>
-    <row r="195" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" s="3">
         <v>2</v>
@@ -7129,18 +7318,19 @@
       <c r="H195" s="3">
         <v>28</v>
       </c>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I195" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" s="2">
         <v>2</v>
@@ -7157,8 +7347,10 @@
       <c r="H196" s="2">
         <v>28</v>
       </c>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
+      <c r="I196" s="2">
+        <v>30</v>
+      </c>
+      <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
@@ -7193,17 +7385,16 @@
       <c r="AP196" s="2"/>
       <c r="AQ196" s="2"/>
       <c r="AR196" s="2"/>
-      <c r="AS196" s="2"/>
-    </row>
-    <row r="197" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" s="2">
         <v>2</v>
@@ -7220,8 +7411,10 @@
       <c r="H197" s="2">
         <v>28</v>
       </c>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
+      <c r="I197" s="2">
+        <v>30</v>
+      </c>
+      <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -7256,17 +7449,16 @@
       <c r="AP197" s="2"/>
       <c r="AQ197" s="2"/>
       <c r="AR197" s="2"/>
-      <c r="AS197" s="2"/>
-    </row>
-    <row r="198" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" s="2">
         <v>2</v>
@@ -7283,8 +7475,10 @@
       <c r="H198" s="2">
         <v>25</v>
       </c>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+      <c r="I198" s="2">
+        <v>16</v>
+      </c>
+      <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -7319,17 +7513,16 @@
       <c r="AP198" s="2"/>
       <c r="AQ198" s="2"/>
       <c r="AR198" s="2"/>
-      <c r="AS198" s="2"/>
-    </row>
-    <row r="199" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" s="2">
         <v>2</v>
@@ -7346,8 +7539,10 @@
       <c r="H199" s="2">
         <v>28</v>
       </c>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
+      <c r="I199" s="2">
+        <v>27</v>
+      </c>
+      <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
@@ -7382,17 +7577,16 @@
       <c r="AP199" s="2"/>
       <c r="AQ199" s="2"/>
       <c r="AR199" s="2"/>
-      <c r="AS199" s="2"/>
-    </row>
-    <row r="200" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" s="2">
         <v>2</v>
@@ -7409,8 +7603,10 @@
       <c r="H200" s="2">
         <v>25</v>
       </c>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+      <c r="I200" s="2">
+        <v>30</v>
+      </c>
+      <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
@@ -7445,17 +7641,16 @@
       <c r="AP200" s="2"/>
       <c r="AQ200" s="2"/>
       <c r="AR200" s="2"/>
-      <c r="AS200" s="2"/>
-    </row>
-    <row r="201" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" s="2">
         <v>2</v>
@@ -7472,8 +7667,10 @@
       <c r="H201" s="2">
         <v>28</v>
       </c>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
+      <c r="I201" s="2">
+        <v>30</v>
+      </c>
+      <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
@@ -7508,17 +7705,16 @@
       <c r="AP201" s="2"/>
       <c r="AQ201" s="2"/>
       <c r="AR201" s="2"/>
-      <c r="AS201" s="2"/>
-    </row>
-    <row r="202" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" s="2">
         <v>2</v>
@@ -7535,8 +7731,10 @@
       <c r="H202" s="2">
         <v>28</v>
       </c>
-      <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
+      <c r="I202" s="2">
+        <v>27</v>
+      </c>
+      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
@@ -7571,17 +7769,16 @@
       <c r="AP202" s="2"/>
       <c r="AQ202" s="2"/>
       <c r="AR202" s="2"/>
-      <c r="AS202" s="2"/>
-    </row>
-    <row r="203" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" s="2">
         <v>2</v>
@@ -7598,8 +7795,10 @@
       <c r="H203" s="2">
         <v>28</v>
       </c>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
+      <c r="I203" s="2">
+        <v>30</v>
+      </c>
+      <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
@@ -7634,17 +7833,16 @@
       <c r="AP203" s="2"/>
       <c r="AQ203" s="2"/>
       <c r="AR203" s="2"/>
-      <c r="AS203" s="2"/>
-    </row>
-    <row r="204" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" s="2">
         <v>2</v>
@@ -7661,8 +7859,10 @@
       <c r="H204" s="2">
         <v>25</v>
       </c>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
+      <c r="I204" s="2">
+        <v>30</v>
+      </c>
+      <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
@@ -7697,17 +7897,16 @@
       <c r="AP204" s="2"/>
       <c r="AQ204" s="2"/>
       <c r="AR204" s="2"/>
-      <c r="AS204" s="2"/>
-    </row>
-    <row r="205" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205" s="2">
         <v>2</v>
@@ -7724,8 +7923,10 @@
       <c r="H205" s="2">
         <v>25</v>
       </c>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
+      <c r="I205" s="2">
+        <v>30</v>
+      </c>
+      <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
@@ -7760,17 +7961,16 @@
       <c r="AP205" s="2"/>
       <c r="AQ205" s="2"/>
       <c r="AR205" s="2"/>
-      <c r="AS205" s="2"/>
-    </row>
-    <row r="206" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" s="2">
         <v>2</v>
@@ -7787,8 +7987,10 @@
       <c r="H206" s="2">
         <v>28</v>
       </c>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
+      <c r="I206" s="2">
+        <v>27</v>
+      </c>
+      <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
@@ -7823,17 +8025,16 @@
       <c r="AP206" s="2"/>
       <c r="AQ206" s="2"/>
       <c r="AR206" s="2"/>
-      <c r="AS206" s="2"/>
-    </row>
-    <row r="207" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" s="2">
         <v>2</v>
@@ -7850,8 +8051,10 @@
       <c r="H207" s="2">
         <v>28</v>
       </c>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
+      <c r="I207" s="2">
+        <v>30</v>
+      </c>
+      <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
@@ -7886,17 +8089,16 @@
       <c r="AP207" s="2"/>
       <c r="AQ207" s="2"/>
       <c r="AR207" s="2"/>
-      <c r="AS207" s="2"/>
-    </row>
-    <row r="208" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" s="3">
         <v>2</v>
@@ -7913,18 +8115,19 @@
       <c r="H208" s="3">
         <v>28</v>
       </c>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-    </row>
-    <row r="209" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I208" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" s="2">
         <v>2</v>
@@ -7941,8 +8144,10 @@
       <c r="H209" s="2">
         <v>28</v>
       </c>
-      <c r="I209" s="7"/>
-      <c r="J209" s="7"/>
+      <c r="I209" s="2">
+        <v>30</v>
+      </c>
+      <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
@@ -7977,17 +8182,16 @@
       <c r="AP209" s="2"/>
       <c r="AQ209" s="2"/>
       <c r="AR209" s="2"/>
-      <c r="AS209" s="2"/>
-    </row>
-    <row r="210" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" s="2">
         <v>2</v>
@@ -8004,8 +8208,10 @@
       <c r="H210" s="2">
         <v>28</v>
       </c>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
+      <c r="I210" s="2">
+        <v>27</v>
+      </c>
+      <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -8040,17 +8246,16 @@
       <c r="AP210" s="2"/>
       <c r="AQ210" s="2"/>
       <c r="AR210" s="2"/>
-      <c r="AS210" s="2"/>
-    </row>
-    <row r="211" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" s="2">
         <v>2</v>
@@ -8067,8 +8272,10 @@
       <c r="H211" s="2">
         <v>28</v>
       </c>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
+      <c r="I211" s="2">
+        <v>30</v>
+      </c>
+      <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -8103,17 +8310,16 @@
       <c r="AP211" s="2"/>
       <c r="AQ211" s="2"/>
       <c r="AR211" s="2"/>
-      <c r="AS211" s="2"/>
-    </row>
-    <row r="212" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D212" s="2">
         <v>2</v>
@@ -8130,8 +8336,10 @@
       <c r="H212" s="2">
         <v>28</v>
       </c>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
+      <c r="I212" s="2">
+        <v>23</v>
+      </c>
+      <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
@@ -8166,17 +8374,16 @@
       <c r="AP212" s="2"/>
       <c r="AQ212" s="2"/>
       <c r="AR212" s="2"/>
-      <c r="AS212" s="2"/>
-    </row>
-    <row r="213" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" s="2">
         <v>2</v>
@@ -8193,8 +8400,10 @@
       <c r="H213" s="2">
         <v>25</v>
       </c>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
+      <c r="I213" s="2">
+        <v>23</v>
+      </c>
+      <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
@@ -8229,17 +8438,16 @@
       <c r="AP213" s="2"/>
       <c r="AQ213" s="2"/>
       <c r="AR213" s="2"/>
-      <c r="AS213" s="2"/>
-    </row>
-    <row r="214" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" s="2">
         <v>2</v>
@@ -8256,8 +8464,10 @@
       <c r="H214" s="2">
         <v>32</v>
       </c>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
+      <c r="I214" s="2">
+        <v>30</v>
+      </c>
+      <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
@@ -8292,17 +8502,16 @@
       <c r="AP214" s="2"/>
       <c r="AQ214" s="2"/>
       <c r="AR214" s="2"/>
-      <c r="AS214" s="2"/>
-    </row>
-    <row r="215" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" s="2">
         <v>2</v>
@@ -8319,8 +8528,10 @@
       <c r="H215" s="2">
         <v>32</v>
       </c>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
+      <c r="I215" s="2">
+        <v>30</v>
+      </c>
+      <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
@@ -8355,17 +8566,16 @@
       <c r="AP215" s="2"/>
       <c r="AQ215" s="2"/>
       <c r="AR215" s="2"/>
-      <c r="AS215" s="2"/>
-    </row>
-    <row r="216" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" s="2">
         <v>2</v>
@@ -8382,8 +8592,10 @@
       <c r="H216" s="2">
         <v>32</v>
       </c>
-      <c r="I216" s="7"/>
-      <c r="J216" s="7"/>
+      <c r="I216" s="2">
+        <v>27</v>
+      </c>
+      <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
@@ -8418,17 +8630,16 @@
       <c r="AP216" s="2"/>
       <c r="AQ216" s="2"/>
       <c r="AR216" s="2"/>
-      <c r="AS216" s="2"/>
-    </row>
-    <row r="217" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" s="2">
         <v>2</v>
@@ -8445,8 +8656,10 @@
       <c r="H217" s="2">
         <v>32</v>
       </c>
-      <c r="I217" s="7"/>
-      <c r="J217" s="7"/>
+      <c r="I217" s="2">
+        <v>27</v>
+      </c>
+      <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
@@ -8481,17 +8694,16 @@
       <c r="AP217" s="2"/>
       <c r="AQ217" s="2"/>
       <c r="AR217" s="2"/>
-      <c r="AS217" s="2"/>
-    </row>
-    <row r="218" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" s="2">
         <v>2</v>
@@ -8508,8 +8720,10 @@
       <c r="H218" s="2">
         <v>28</v>
       </c>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
+      <c r="I218" s="2">
+        <v>30</v>
+      </c>
+      <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
@@ -8544,17 +8758,16 @@
       <c r="AP218" s="2"/>
       <c r="AQ218" s="2"/>
       <c r="AR218" s="2"/>
-      <c r="AS218" s="2"/>
-    </row>
-    <row r="219" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" s="2">
         <v>2</v>
@@ -8571,8 +8784,10 @@
       <c r="H219" s="2">
         <v>28</v>
       </c>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
+      <c r="I219" s="2">
+        <v>27</v>
+      </c>
+      <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
@@ -8607,17 +8822,16 @@
       <c r="AP219" s="2"/>
       <c r="AQ219" s="2"/>
       <c r="AR219" s="2"/>
-      <c r="AS219" s="2"/>
-    </row>
-    <row r="220" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" s="2">
         <v>2</v>
@@ -8634,8 +8848,10 @@
       <c r="H220" s="2">
         <v>32</v>
       </c>
-      <c r="I220" s="7"/>
-      <c r="J220" s="7"/>
+      <c r="I220" s="2">
+        <v>16</v>
+      </c>
+      <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
@@ -8670,17 +8886,16 @@
       <c r="AP220" s="2"/>
       <c r="AQ220" s="2"/>
       <c r="AR220" s="2"/>
-      <c r="AS220" s="2"/>
-    </row>
-    <row r="221" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" s="2">
         <v>2</v>
@@ -8697,8 +8912,10 @@
       <c r="H221" s="2">
         <v>28</v>
       </c>
-      <c r="I221" s="7"/>
-      <c r="J221" s="7"/>
+      <c r="I221" s="2">
+        <v>30</v>
+      </c>
+      <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
@@ -8733,17 +8950,16 @@
       <c r="AP221" s="2"/>
       <c r="AQ221" s="2"/>
       <c r="AR221" s="2"/>
-      <c r="AS221" s="2"/>
-    </row>
-    <row r="222" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" s="2">
         <v>2</v>
@@ -8760,8 +8976,10 @@
       <c r="H222" s="2">
         <v>28</v>
       </c>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
+      <c r="I222" s="2">
+        <v>27</v>
+      </c>
+      <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
@@ -8796,17 +9014,16 @@
       <c r="AP222" s="2"/>
       <c r="AQ222" s="2"/>
       <c r="AR222" s="2"/>
-      <c r="AS222" s="2"/>
-    </row>
-    <row r="223" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" s="2">
         <v>2</v>
@@ -8823,8 +9040,10 @@
       <c r="H223" s="2">
         <v>32</v>
       </c>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
+      <c r="I223" s="2">
+        <v>30</v>
+      </c>
+      <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
@@ -8859,17 +9078,16 @@
       <c r="AP223" s="2"/>
       <c r="AQ223" s="2"/>
       <c r="AR223" s="2"/>
-      <c r="AS223" s="2"/>
-    </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" s="2">
         <v>2</v>
@@ -8886,18 +9104,19 @@
       <c r="H224" s="2">
         <v>32</v>
       </c>
-      <c r="I224" s="7"/>
-      <c r="J224" s="7"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I224" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" s="2">
         <v>2</v>
@@ -8914,18 +9133,19 @@
       <c r="H225" s="2">
         <v>25</v>
       </c>
-      <c r="I225" s="7"/>
-      <c r="J225" s="7"/>
-    </row>
-    <row r="226" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I225" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" s="3">
         <v>2</v>
@@ -8942,18 +9162,19 @@
       <c r="H226" s="3">
         <v>28</v>
       </c>
-      <c r="I226" s="5"/>
-      <c r="J226" s="5"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I226" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" s="2">
         <v>2</v>
@@ -8970,18 +9191,19 @@
       <c r="H227" s="2">
         <v>32</v>
       </c>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I227" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" s="2">
         <v>2</v>
@@ -8998,18 +9220,19 @@
       <c r="H228" s="2">
         <v>28</v>
       </c>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I228" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" s="2">
         <v>2</v>
@@ -9026,18 +9249,19 @@
       <c r="H229" s="2">
         <v>28</v>
       </c>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I229" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" s="2">
         <v>2</v>
@@ -9054,18 +9278,19 @@
       <c r="H230" s="2">
         <v>25</v>
       </c>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I230" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" s="2">
         <v>2</v>
@@ -9082,18 +9307,19 @@
       <c r="H231" s="2">
         <v>32</v>
       </c>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I231" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" s="2">
         <v>2</v>
@@ -9110,18 +9336,19 @@
       <c r="H232" s="2">
         <v>28</v>
       </c>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I232" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" s="2">
         <v>2</v>
@@ -9138,18 +9365,19 @@
       <c r="H233" s="2">
         <v>28</v>
       </c>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I233" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" s="2">
         <v>2</v>
@@ -9166,18 +9394,19 @@
       <c r="H234" s="2">
         <v>25</v>
       </c>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-    </row>
-    <row r="235" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I234" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" s="3">
         <v>2</v>
@@ -9194,18 +9423,19 @@
       <c r="H235" s="3">
         <v>28</v>
       </c>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I235" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" s="2">
         <v>2</v>
@@ -9222,18 +9452,19 @@
       <c r="H236" s="2">
         <v>25</v>
       </c>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I236" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" s="2">
         <v>2</v>
@@ -9250,18 +9481,19 @@
       <c r="H237" s="2">
         <v>28</v>
       </c>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I237" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" s="2">
         <v>2</v>
@@ -9278,18 +9510,19 @@
       <c r="H238" s="2">
         <v>28</v>
       </c>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I238" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" s="2">
         <v>2</v>
@@ -9306,18 +9539,19 @@
       <c r="H239" s="2">
         <v>32</v>
       </c>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-    </row>
-    <row r="240" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I239" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" s="3">
         <v>2</v>
@@ -9334,18 +9568,19 @@
       <c r="H240" s="3">
         <v>25</v>
       </c>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I240" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241" s="2">
         <v>2</v>
@@ -9362,18 +9597,19 @@
       <c r="H241" s="2">
         <v>32</v>
       </c>
-      <c r="I241" s="7"/>
-      <c r="J241" s="7"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I241" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D242" s="2">
         <v>2</v>
@@ -9390,18 +9626,19 @@
       <c r="H242" s="2">
         <v>32</v>
       </c>
-      <c r="I242" s="7"/>
-      <c r="J242" s="7"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I242" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" s="2">
         <v>2</v>
@@ -9418,18 +9655,19 @@
       <c r="H243" s="2">
         <v>25</v>
       </c>
-      <c r="I243" s="7"/>
-      <c r="J243" s="7"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I243" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" s="2">
         <v>2</v>
@@ -9446,18 +9684,19 @@
       <c r="H244" s="2">
         <v>25</v>
       </c>
-      <c r="I244" s="7"/>
-      <c r="J244" s="7"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I244" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" s="2">
         <v>2</v>
@@ -9474,18 +9713,19 @@
       <c r="H245" s="2">
         <v>28</v>
       </c>
-      <c r="I245" s="7"/>
-      <c r="J245" s="7"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I245" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" s="2">
         <v>2</v>
@@ -9502,18 +9742,19 @@
       <c r="H246" s="2">
         <v>32</v>
       </c>
-      <c r="I246" s="7"/>
-      <c r="J246" s="7"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I246" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" s="2">
         <v>2</v>
@@ -9530,18 +9771,19 @@
       <c r="H247" s="2">
         <v>25</v>
       </c>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I247" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D248" s="2">
         <v>2</v>
@@ -9558,18 +9800,19 @@
       <c r="H248" s="2">
         <v>32</v>
       </c>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-    </row>
-    <row r="249" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I248" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D249" s="3">
         <v>2</v>
@@ -9586,18 +9829,19 @@
       <c r="H249" s="3">
         <v>25</v>
       </c>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I249" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D250" s="2">
         <v>2</v>
@@ -9614,18 +9858,19 @@
       <c r="H250" s="2">
         <v>28</v>
       </c>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I250" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" s="2">
         <v>2</v>
@@ -9642,18 +9887,19 @@
       <c r="H251" s="2">
         <v>25</v>
       </c>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I251" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" s="2">
         <v>2</v>
@@ -9670,18 +9916,19 @@
       <c r="H252" s="2">
         <v>28</v>
       </c>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I252" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D253" s="2">
         <v>2</v>
@@ -9698,18 +9945,19 @@
       <c r="H253" s="2">
         <v>32</v>
       </c>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I253" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D254" s="2">
         <v>8</v>
@@ -9726,18 +9974,19 @@
       <c r="H254" s="2">
         <v>25</v>
       </c>
-      <c r="I254" s="7"/>
-      <c r="J254" s="7"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I254" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" s="2">
         <v>8</v>
@@ -9754,18 +10003,19 @@
       <c r="H255" s="2">
         <v>25</v>
       </c>
-      <c r="I255" s="7"/>
-      <c r="J255" s="7"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I255" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" s="2">
         <v>8</v>
@@ -9782,18 +10032,19 @@
       <c r="H256" s="2">
         <v>25</v>
       </c>
-      <c r="I256" s="7"/>
-      <c r="J256" s="7"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I256" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D257" s="2">
         <v>8</v>
@@ -9810,18 +10061,19 @@
       <c r="H257" s="2">
         <v>28</v>
       </c>
-      <c r="I257" s="7"/>
-      <c r="J257" s="7"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I257" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D258" s="2">
         <v>8</v>
@@ -9838,18 +10090,19 @@
       <c r="H258" s="2">
         <v>32</v>
       </c>
-      <c r="I258" s="7"/>
-      <c r="J258" s="7"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I258" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" s="2">
         <v>8</v>
@@ -9866,18 +10119,19 @@
       <c r="H259" s="2">
         <v>28</v>
       </c>
-      <c r="I259" s="7"/>
-      <c r="J259" s="7"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I259" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" s="2">
         <v>8</v>
@@ -9894,18 +10148,19 @@
       <c r="H260" s="2">
         <v>32</v>
       </c>
-      <c r="I260" s="7"/>
-      <c r="J260" s="7"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I260" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" s="2">
         <v>8</v>
@@ -9922,18 +10177,19 @@
       <c r="H261" s="2">
         <v>28</v>
       </c>
-      <c r="I261" s="7"/>
-      <c r="J261" s="7"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I261" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" s="2">
         <v>8</v>
@@ -9950,18 +10206,19 @@
       <c r="H262" s="2">
         <v>25</v>
       </c>
-      <c r="I262" s="7"/>
-      <c r="J262" s="7"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I262" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D263" s="2">
         <v>8</v>
@@ -9978,18 +10235,19 @@
       <c r="H263" s="2">
         <v>32</v>
       </c>
-      <c r="I263" s="7"/>
-      <c r="J263" s="7"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I263" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" s="2">
         <v>8</v>
@@ -10006,18 +10264,19 @@
       <c r="H264" s="2">
         <v>25</v>
       </c>
-      <c r="I264" s="7"/>
-      <c r="J264" s="7"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I264" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D265" s="2">
         <v>8</v>
@@ -10034,18 +10293,19 @@
       <c r="H265" s="2">
         <v>28</v>
       </c>
-      <c r="I265" s="7"/>
-      <c r="J265" s="7"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I265" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D266" s="2">
         <v>8</v>
@@ -10062,18 +10322,19 @@
       <c r="H266" s="2">
         <v>28</v>
       </c>
-      <c r="I266" s="7"/>
-      <c r="J266" s="7"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I266" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D267" s="2">
         <v>8</v>
@@ -10090,18 +10351,19 @@
       <c r="H267" s="2">
         <v>28</v>
       </c>
-      <c r="I267" s="7"/>
-      <c r="J267" s="7"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I267" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D268" s="2">
         <v>8</v>
@@ -10118,18 +10380,19 @@
       <c r="H268" s="2">
         <v>32</v>
       </c>
-      <c r="I268" s="7"/>
-      <c r="J268" s="7"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I268" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D269" s="2">
         <v>8</v>
@@ -10146,18 +10409,19 @@
       <c r="H269" s="2">
         <v>28</v>
       </c>
-      <c r="I269" s="7"/>
-      <c r="J269" s="7"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I269" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D270" s="2">
         <v>8</v>
@@ -10174,18 +10438,19 @@
       <c r="H270" s="2">
         <v>28</v>
       </c>
-      <c r="I270" s="7"/>
-      <c r="J270" s="7"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I270" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D271" s="2">
         <v>8</v>
@@ -10202,18 +10467,19 @@
       <c r="H271" s="2">
         <v>32</v>
       </c>
-      <c r="I271" s="7"/>
-      <c r="J271" s="7"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I271" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D272" s="2">
         <v>8</v>
@@ -10230,18 +10496,19 @@
       <c r="H272" s="2">
         <v>25</v>
       </c>
-      <c r="I272" s="7"/>
-      <c r="J272" s="7"/>
-    </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I272" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D273" s="2">
         <v>8</v>
@@ -10258,18 +10525,19 @@
       <c r="H273" s="2">
         <v>32</v>
       </c>
-      <c r="I273" s="7"/>
-      <c r="J273" s="7"/>
-    </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I273" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D274" s="2">
         <v>8</v>
@@ -10286,18 +10554,19 @@
       <c r="H274" s="2">
         <v>28</v>
       </c>
-      <c r="I274" s="7"/>
-      <c r="J274" s="7"/>
-    </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I274" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D275" s="2">
         <v>8</v>
@@ -10314,18 +10583,19 @@
       <c r="H275" s="2">
         <v>28</v>
       </c>
-      <c r="I275" s="7"/>
-      <c r="J275" s="7"/>
-    </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I275" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D276" s="2">
         <v>8</v>
@@ -10342,18 +10612,19 @@
       <c r="H276" s="2">
         <v>28</v>
       </c>
-      <c r="I276" s="7"/>
-      <c r="J276" s="7"/>
-    </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I276" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D277" s="2">
         <v>8</v>
@@ -10370,18 +10641,19 @@
       <c r="H277" s="2">
         <v>28</v>
       </c>
-      <c r="I277" s="7"/>
-      <c r="J277" s="7"/>
-    </row>
-    <row r="278" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I277" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D278" s="3">
         <v>8</v>
@@ -10398,18 +10670,19 @@
       <c r="H278" s="3">
         <v>28</v>
       </c>
-      <c r="I278" s="5"/>
-      <c r="J278" s="5"/>
-    </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I278" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D279" s="2">
         <v>8</v>
@@ -10426,18 +10699,19 @@
       <c r="H279" s="2">
         <v>28</v>
       </c>
-      <c r="I279" s="7"/>
-      <c r="J279" s="7"/>
-    </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I279" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D280" s="2">
         <v>8</v>
@@ -10454,18 +10728,19 @@
       <c r="H280" s="2">
         <v>25</v>
       </c>
-      <c r="I280" s="7"/>
-      <c r="J280" s="7"/>
-    </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I280" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D281" s="2">
         <v>8</v>
@@ -10482,18 +10757,19 @@
       <c r="H281" s="2">
         <v>28</v>
       </c>
-      <c r="I281" s="7"/>
-      <c r="J281" s="7"/>
-    </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I281" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D282" s="2">
         <v>8</v>
@@ -10510,18 +10786,19 @@
       <c r="H282" s="2">
         <v>28</v>
       </c>
-      <c r="I282" s="7"/>
-      <c r="J282" s="7"/>
-    </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I282" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283" s="2">
         <v>8</v>
@@ -10538,18 +10815,19 @@
       <c r="H283" s="2">
         <v>28</v>
       </c>
-      <c r="I283" s="7"/>
-      <c r="J283" s="7"/>
-    </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I283" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D284" s="2">
         <v>8</v>
@@ -10566,18 +10844,19 @@
       <c r="H284" s="2">
         <v>28</v>
       </c>
-      <c r="I284" s="7"/>
-      <c r="J284" s="7"/>
-    </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I284" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D285" s="2">
         <v>8</v>
@@ -10594,18 +10873,19 @@
       <c r="H285" s="2">
         <v>28</v>
       </c>
-      <c r="I285" s="7"/>
-      <c r="J285" s="7"/>
-    </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I285" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D286" s="2">
         <v>8</v>
@@ -10622,18 +10902,19 @@
       <c r="H286" s="2">
         <v>28</v>
       </c>
-      <c r="I286" s="7"/>
-      <c r="J286" s="7"/>
-    </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="I286" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D287" s="2">
         <v>8</v>
@@ -10650,18 +10931,19 @@
       <c r="H287" s="2">
         <v>28</v>
       </c>
-      <c r="I287" s="7"/>
-      <c r="J287" s="7"/>
-    </row>
-    <row r="288" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I287" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D288" s="2">
         <v>8</v>
@@ -10678,8 +10960,10 @@
       <c r="H288" s="2">
         <v>28</v>
       </c>
-      <c r="I288" s="7"/>
-      <c r="J288" s="7"/>
+      <c r="I288" s="2">
+        <v>30</v>
+      </c>
+      <c r="J288" s="2"/>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
@@ -10714,17 +10998,16 @@
       <c r="AP288" s="2"/>
       <c r="AQ288" s="2"/>
       <c r="AR288" s="2"/>
-      <c r="AS288" s="2"/>
-    </row>
-    <row r="289" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D289" s="2">
         <v>8</v>
@@ -10741,8 +11024,10 @@
       <c r="H289" s="2">
         <v>25</v>
       </c>
-      <c r="I289" s="7"/>
-      <c r="J289" s="7"/>
+      <c r="I289" s="2">
+        <v>27</v>
+      </c>
+      <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
@@ -10777,17 +11062,16 @@
       <c r="AP289" s="2"/>
       <c r="AQ289" s="2"/>
       <c r="AR289" s="2"/>
-      <c r="AS289" s="2"/>
-    </row>
-    <row r="290" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D290" s="2">
         <v>8</v>
@@ -10804,8 +11088,10 @@
       <c r="H290" s="2">
         <v>25</v>
       </c>
-      <c r="I290" s="7"/>
-      <c r="J290" s="7"/>
+      <c r="I290" s="2">
+        <v>27</v>
+      </c>
+      <c r="J290" s="2"/>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
@@ -10840,17 +11126,16 @@
       <c r="AP290" s="2"/>
       <c r="AQ290" s="2"/>
       <c r="AR290" s="2"/>
-      <c r="AS290" s="2"/>
-    </row>
-    <row r="291" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D291" s="2">
         <v>8</v>
@@ -10867,8 +11152,10 @@
       <c r="H291" s="2">
         <v>25</v>
       </c>
-      <c r="I291" s="7"/>
-      <c r="J291" s="7"/>
+      <c r="I291" s="2">
+        <v>27</v>
+      </c>
+      <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
@@ -10903,17 +11190,16 @@
       <c r="AP291" s="2"/>
       <c r="AQ291" s="2"/>
       <c r="AR291" s="2"/>
-      <c r="AS291" s="2"/>
-    </row>
-    <row r="292" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D292" s="3">
         <v>8</v>
@@ -10930,18 +11216,19 @@
       <c r="H292" s="3">
         <v>28</v>
       </c>
-      <c r="I292" s="5"/>
-      <c r="J292" s="5"/>
-    </row>
-    <row r="293" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I292" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D293" s="2">
         <v>8</v>
@@ -10958,8 +11245,10 @@
       <c r="H293" s="2">
         <v>25</v>
       </c>
-      <c r="I293" s="7"/>
-      <c r="J293" s="7"/>
+      <c r="I293" s="2">
+        <v>30</v>
+      </c>
+      <c r="J293" s="2"/>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
@@ -10994,17 +11283,16 @@
       <c r="AP293" s="2"/>
       <c r="AQ293" s="2"/>
       <c r="AR293" s="2"/>
-      <c r="AS293" s="2"/>
-    </row>
-    <row r="294" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D294" s="2">
         <v>8</v>
@@ -11021,8 +11309,10 @@
       <c r="H294" s="2">
         <v>28</v>
       </c>
-      <c r="I294" s="7"/>
-      <c r="J294" s="7"/>
+      <c r="I294" s="2">
+        <v>27</v>
+      </c>
+      <c r="J294" s="2"/>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
@@ -11057,17 +11347,16 @@
       <c r="AP294" s="2"/>
       <c r="AQ294" s="2"/>
       <c r="AR294" s="2"/>
-      <c r="AS294" s="2"/>
-    </row>
-    <row r="295" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D295" s="2">
         <v>8</v>
@@ -11084,8 +11373,10 @@
       <c r="H295" s="2">
         <v>32</v>
       </c>
-      <c r="I295" s="7"/>
-      <c r="J295" s="7"/>
+      <c r="I295" s="2">
+        <v>30</v>
+      </c>
+      <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
@@ -11120,17 +11411,16 @@
       <c r="AP295" s="2"/>
       <c r="AQ295" s="2"/>
       <c r="AR295" s="2"/>
-      <c r="AS295" s="2"/>
-    </row>
-    <row r="296" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D296" s="2">
         <v>8</v>
@@ -11147,8 +11437,10 @@
       <c r="H296" s="2">
         <v>25</v>
       </c>
-      <c r="I296" s="7"/>
-      <c r="J296" s="7"/>
+      <c r="I296" s="2">
+        <v>23</v>
+      </c>
+      <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
@@ -11183,17 +11475,16 @@
       <c r="AP296" s="2"/>
       <c r="AQ296" s="2"/>
       <c r="AR296" s="2"/>
-      <c r="AS296" s="2"/>
-    </row>
-    <row r="297" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D297" s="2">
         <v>8</v>
@@ -11210,8 +11501,10 @@
       <c r="H297" s="2">
         <v>28</v>
       </c>
-      <c r="I297" s="7"/>
-      <c r="J297" s="7"/>
+      <c r="I297" s="2">
+        <v>27</v>
+      </c>
+      <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
@@ -11246,17 +11539,16 @@
       <c r="AP297" s="2"/>
       <c r="AQ297" s="2"/>
       <c r="AR297" s="2"/>
-      <c r="AS297" s="2"/>
-    </row>
-    <row r="298" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" s="2">
         <v>8</v>
@@ -11273,8 +11565,10 @@
       <c r="H298" s="2">
         <v>28</v>
       </c>
-      <c r="I298" s="7"/>
-      <c r="J298" s="7"/>
+      <c r="I298" s="2">
+        <v>30</v>
+      </c>
+      <c r="J298" s="2"/>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
@@ -11309,17 +11603,16 @@
       <c r="AP298" s="2"/>
       <c r="AQ298" s="2"/>
       <c r="AR298" s="2"/>
-      <c r="AS298" s="2"/>
-    </row>
-    <row r="299" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D299" s="2">
         <v>8</v>
@@ -11336,8 +11629,10 @@
       <c r="H299" s="2">
         <v>32</v>
       </c>
-      <c r="I299" s="7"/>
-      <c r="J299" s="7"/>
+      <c r="I299" s="2">
+        <v>16</v>
+      </c>
+      <c r="J299" s="2"/>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
@@ -11372,17 +11667,16 @@
       <c r="AP299" s="2"/>
       <c r="AQ299" s="2"/>
       <c r="AR299" s="2"/>
-      <c r="AS299" s="2"/>
-    </row>
-    <row r="300" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D300" s="2">
         <v>8</v>
@@ -11399,8 +11693,10 @@
       <c r="H300" s="2">
         <v>25</v>
       </c>
-      <c r="I300" s="7"/>
-      <c r="J300" s="7"/>
+      <c r="I300" s="2">
+        <v>27</v>
+      </c>
+      <c r="J300" s="2"/>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
@@ -11435,17 +11731,16 @@
       <c r="AP300" s="2"/>
       <c r="AQ300" s="2"/>
       <c r="AR300" s="2"/>
-      <c r="AS300" s="2"/>
-    </row>
-    <row r="301" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D301" s="2">
         <v>8</v>
@@ -11462,8 +11757,10 @@
       <c r="H301" s="2">
         <v>25</v>
       </c>
-      <c r="I301" s="7"/>
-      <c r="J301" s="7"/>
+      <c r="I301" s="2">
+        <v>30</v>
+      </c>
+      <c r="J301" s="2"/>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
@@ -11498,17 +11795,16 @@
       <c r="AP301" s="2"/>
       <c r="AQ301" s="2"/>
       <c r="AR301" s="2"/>
-      <c r="AS301" s="2"/>
-    </row>
-    <row r="302" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302" s="2">
         <v>8</v>
@@ -11525,8 +11821,10 @@
       <c r="H302" s="2">
         <v>25</v>
       </c>
-      <c r="I302" s="7"/>
-      <c r="J302" s="7"/>
+      <c r="I302" s="2">
+        <v>30</v>
+      </c>
+      <c r="J302" s="2"/>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
@@ -11561,17 +11859,16 @@
       <c r="AP302" s="2"/>
       <c r="AQ302" s="2"/>
       <c r="AR302" s="2"/>
-      <c r="AS302" s="2"/>
-    </row>
-    <row r="303" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D303" s="2">
         <v>8</v>
@@ -11588,8 +11885,10 @@
       <c r="H303" s="2">
         <v>28</v>
       </c>
-      <c r="I303" s="7"/>
-      <c r="J303" s="7"/>
+      <c r="I303" s="2">
+        <v>30</v>
+      </c>
+      <c r="J303" s="2"/>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
@@ -11624,17 +11923,16 @@
       <c r="AP303" s="2"/>
       <c r="AQ303" s="2"/>
       <c r="AR303" s="2"/>
-      <c r="AS303" s="2"/>
-    </row>
-    <row r="304" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D304" s="2">
         <v>8</v>
@@ -11651,8 +11949,10 @@
       <c r="H304" s="2">
         <v>32</v>
       </c>
-      <c r="I304" s="7"/>
-      <c r="J304" s="7"/>
+      <c r="I304" s="2">
+        <v>30</v>
+      </c>
+      <c r="J304" s="2"/>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
@@ -11687,17 +11987,16 @@
       <c r="AP304" s="2"/>
       <c r="AQ304" s="2"/>
       <c r="AR304" s="2"/>
-      <c r="AS304" s="2"/>
-    </row>
-    <row r="305" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D305" s="2">
         <v>8</v>
@@ -11714,8 +12013,10 @@
       <c r="H305" s="2">
         <v>32</v>
       </c>
-      <c r="I305" s="7"/>
-      <c r="J305" s="7"/>
+      <c r="I305" s="2">
+        <v>30</v>
+      </c>
+      <c r="J305" s="2"/>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
@@ -11750,17 +12051,16 @@
       <c r="AP305" s="2"/>
       <c r="AQ305" s="2"/>
       <c r="AR305" s="2"/>
-      <c r="AS305" s="2"/>
-    </row>
-    <row r="306" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D306" s="2">
         <v>8</v>
@@ -11777,8 +12077,10 @@
       <c r="H306" s="2">
         <v>28</v>
       </c>
-      <c r="I306" s="7"/>
-      <c r="J306" s="7"/>
+      <c r="I306" s="2">
+        <v>23</v>
+      </c>
+      <c r="J306" s="2"/>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
@@ -11813,17 +12115,16 @@
       <c r="AP306" s="2"/>
       <c r="AQ306" s="2"/>
       <c r="AR306" s="2"/>
-      <c r="AS306" s="2"/>
-    </row>
-    <row r="307" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D307" s="2">
         <v>8</v>
@@ -11840,8 +12141,10 @@
       <c r="H307" s="2">
         <v>28</v>
       </c>
-      <c r="I307" s="7"/>
-      <c r="J307" s="7"/>
+      <c r="I307" s="2">
+        <v>27</v>
+      </c>
+      <c r="J307" s="2"/>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
@@ -11876,17 +12179,16 @@
       <c r="AP307" s="2"/>
       <c r="AQ307" s="2"/>
       <c r="AR307" s="2"/>
-      <c r="AS307" s="2"/>
-    </row>
-    <row r="308" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D308" s="2">
         <v>8</v>
@@ -11903,8 +12205,10 @@
       <c r="H308" s="2">
         <v>28</v>
       </c>
-      <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
+      <c r="I308" s="2">
+        <v>30</v>
+      </c>
+      <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
@@ -11939,17 +12243,16 @@
       <c r="AP308" s="2"/>
       <c r="AQ308" s="2"/>
       <c r="AR308" s="2"/>
-      <c r="AS308" s="2"/>
-    </row>
-    <row r="309" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D309" s="2">
         <v>8</v>
@@ -11966,8 +12269,10 @@
       <c r="H309" s="2">
         <v>28</v>
       </c>
-      <c r="I309" s="7"/>
-      <c r="J309" s="7"/>
+      <c r="I309" s="2">
+        <v>27</v>
+      </c>
+      <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
@@ -12002,17 +12307,16 @@
       <c r="AP309" s="2"/>
       <c r="AQ309" s="2"/>
       <c r="AR309" s="2"/>
-      <c r="AS309" s="2"/>
-    </row>
-    <row r="310" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D310" s="2">
         <v>8</v>
@@ -12029,8 +12333,10 @@
       <c r="H310" s="2">
         <v>28</v>
       </c>
-      <c r="I310" s="7"/>
-      <c r="J310" s="7"/>
+      <c r="I310" s="2">
+        <v>30</v>
+      </c>
+      <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
@@ -12065,17 +12371,16 @@
       <c r="AP310" s="2"/>
       <c r="AQ310" s="2"/>
       <c r="AR310" s="2"/>
-      <c r="AS310" s="2"/>
-    </row>
-    <row r="311" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D311" s="2">
         <v>8</v>
@@ -12092,8 +12397,10 @@
       <c r="H311" s="2">
         <v>28</v>
       </c>
-      <c r="I311" s="7"/>
-      <c r="J311" s="7"/>
+      <c r="I311" s="2">
+        <v>27</v>
+      </c>
+      <c r="J311" s="2"/>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
@@ -12128,17 +12435,16 @@
       <c r="AP311" s="2"/>
       <c r="AQ311" s="2"/>
       <c r="AR311" s="2"/>
-      <c r="AS311" s="2"/>
-    </row>
-    <row r="312" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D312" s="2">
         <v>8</v>
@@ -12155,8 +12461,10 @@
       <c r="H312" s="2">
         <v>32</v>
       </c>
-      <c r="I312" s="7"/>
-      <c r="J312" s="7"/>
+      <c r="I312" s="2">
+        <v>30</v>
+      </c>
+      <c r="J312" s="2"/>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
@@ -12191,17 +12499,16 @@
       <c r="AP312" s="2"/>
       <c r="AQ312" s="2"/>
       <c r="AR312" s="2"/>
-      <c r="AS312" s="2"/>
-    </row>
-    <row r="313" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D313" s="2">
         <v>8</v>
@@ -12218,8 +12525,10 @@
       <c r="H313" s="2">
         <v>32</v>
       </c>
-      <c r="I313" s="7"/>
-      <c r="J313" s="7"/>
+      <c r="I313" s="2">
+        <v>27</v>
+      </c>
+      <c r="J313" s="2"/>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
@@ -12254,17 +12563,16 @@
       <c r="AP313" s="2"/>
       <c r="AQ313" s="2"/>
       <c r="AR313" s="2"/>
-      <c r="AS313" s="2"/>
-    </row>
-    <row r="314" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D314" s="2">
         <v>8</v>
@@ -12281,8 +12589,10 @@
       <c r="H314" s="2">
         <v>32</v>
       </c>
-      <c r="I314" s="7"/>
-      <c r="J314" s="7"/>
+      <c r="I314" s="2">
+        <v>27</v>
+      </c>
+      <c r="J314" s="2"/>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
@@ -12317,17 +12627,16 @@
       <c r="AP314" s="2"/>
       <c r="AQ314" s="2"/>
       <c r="AR314" s="2"/>
-      <c r="AS314" s="2"/>
-    </row>
-    <row r="315" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D315" s="2">
         <v>8</v>
@@ -12344,8 +12653,10 @@
       <c r="H315" s="2">
         <v>32</v>
       </c>
-      <c r="I315" s="7"/>
-      <c r="J315" s="7"/>
+      <c r="I315" s="2">
+        <v>30</v>
+      </c>
+      <c r="J315" s="2"/>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
@@ -12380,17 +12691,16 @@
       <c r="AP315" s="2"/>
       <c r="AQ315" s="2"/>
       <c r="AR315" s="2"/>
-      <c r="AS315" s="2"/>
-    </row>
-    <row r="316" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D316" s="2">
         <v>8</v>
@@ -12407,8 +12717,10 @@
       <c r="H316" s="2">
         <v>25</v>
       </c>
-      <c r="I316" s="7"/>
-      <c r="J316" s="7"/>
+      <c r="I316" s="2">
+        <v>30</v>
+      </c>
+      <c r="J316" s="2"/>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
@@ -12443,17 +12755,16 @@
       <c r="AP316" s="2"/>
       <c r="AQ316" s="2"/>
       <c r="AR316" s="2"/>
-      <c r="AS316" s="2"/>
-    </row>
-    <row r="317" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D317" s="2">
         <v>8</v>
@@ -12470,8 +12781,10 @@
       <c r="H317" s="2">
         <v>25</v>
       </c>
-      <c r="I317" s="7"/>
-      <c r="J317" s="7"/>
+      <c r="I317" s="2">
+        <v>23</v>
+      </c>
+      <c r="J317" s="2"/>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
@@ -12506,17 +12819,16 @@
       <c r="AP317" s="2"/>
       <c r="AQ317" s="2"/>
       <c r="AR317" s="2"/>
-      <c r="AS317" s="2"/>
-    </row>
-    <row r="318" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D318" s="2">
         <v>8</v>
@@ -12533,8 +12845,10 @@
       <c r="H318" s="2">
         <v>25</v>
       </c>
-      <c r="I318" s="7"/>
-      <c r="J318" s="7"/>
+      <c r="I318" s="2">
+        <v>27</v>
+      </c>
+      <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
@@ -12569,17 +12883,16 @@
       <c r="AP318" s="2"/>
       <c r="AQ318" s="2"/>
       <c r="AR318" s="2"/>
-      <c r="AS318" s="2"/>
-    </row>
-    <row r="319" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2">
         <v>8</v>
@@ -12596,8 +12909,10 @@
       <c r="H319" s="2">
         <v>28</v>
       </c>
-      <c r="I319" s="7"/>
-      <c r="J319" s="7"/>
+      <c r="I319" s="2">
+        <v>30</v>
+      </c>
+      <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
@@ -12632,17 +12947,16 @@
       <c r="AP319" s="2"/>
       <c r="AQ319" s="2"/>
       <c r="AR319" s="2"/>
-      <c r="AS319" s="2"/>
-    </row>
-    <row r="320" spans="1:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D320" s="2">
         <v>8</v>
@@ -12659,18 +12973,19 @@
       <c r="H320" s="2">
         <v>25</v>
       </c>
-      <c r="I320" s="7"/>
-      <c r="J320" s="7"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I320" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D321" s="2">
         <v>8</v>
@@ -12687,18 +13002,19 @@
       <c r="H321" s="2">
         <v>32</v>
       </c>
-      <c r="I321" s="7"/>
-      <c r="J321" s="7"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I321" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322" s="2">
         <v>8</v>
@@ -12715,18 +13031,19 @@
       <c r="H322" s="2">
         <v>25</v>
       </c>
-      <c r="I322" s="7"/>
-      <c r="J322" s="7"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I322" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D323" s="2">
         <v>8</v>
@@ -12743,18 +13060,19 @@
       <c r="H323" s="2">
         <v>28</v>
       </c>
-      <c r="I323" s="7"/>
-      <c r="J323" s="7"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I323" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D324" s="2">
         <v>8</v>
@@ -12771,18 +13089,19 @@
       <c r="H324" s="2">
         <v>28</v>
       </c>
-      <c r="I324" s="7"/>
-      <c r="J324" s="7"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I324" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" s="2">
         <v>8</v>
@@ -12799,18 +13118,19 @@
       <c r="H325" s="2">
         <v>32</v>
       </c>
-      <c r="I325" s="7"/>
-      <c r="J325" s="7"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I325" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D326" s="2">
         <v>8</v>
@@ -12827,18 +13147,19 @@
       <c r="H326" s="2">
         <v>25</v>
       </c>
-      <c r="I326" s="7"/>
-      <c r="J326" s="7"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I326" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327" s="2">
         <v>8</v>
@@ -12855,18 +13176,19 @@
       <c r="H327" s="2">
         <v>25</v>
       </c>
-      <c r="I327" s="7"/>
-      <c r="J327" s="7"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I327" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D328" s="2">
         <v>8</v>
@@ -12883,18 +13205,19 @@
       <c r="H328" s="2">
         <v>25</v>
       </c>
-      <c r="I328" s="7"/>
-      <c r="J328" s="7"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I328" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D329" s="2">
         <v>8</v>
@@ -12911,18 +13234,19 @@
       <c r="H329" s="2">
         <v>25</v>
       </c>
-      <c r="I329" s="7"/>
-      <c r="J329" s="7"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I329" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D330" s="2">
         <v>8</v>
@@ -12939,18 +13263,19 @@
       <c r="H330" s="2">
         <v>32</v>
       </c>
-      <c r="I330" s="7"/>
-      <c r="J330" s="7"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I330" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D331" s="2">
         <v>8</v>
@@ -12967,18 +13292,19 @@
       <c r="H331" s="2">
         <v>28</v>
       </c>
-      <c r="I331" s="7"/>
-      <c r="J331" s="7"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I331" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D332" s="2">
         <v>8</v>
@@ -12995,18 +13321,19 @@
       <c r="H332" s="2">
         <v>28</v>
       </c>
-      <c r="I332" s="7"/>
-      <c r="J332" s="7"/>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I332" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D333" s="2">
         <v>8</v>
@@ -13023,18 +13350,19 @@
       <c r="H333" s="2">
         <v>28</v>
       </c>
-      <c r="I333" s="7"/>
-      <c r="J333" s="7"/>
-    </row>
-    <row r="334" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I333" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D334" s="3">
         <v>8</v>
@@ -13051,18 +13379,19 @@
       <c r="H334" s="3">
         <v>25</v>
       </c>
-      <c r="I334" s="5"/>
-      <c r="J334" s="5"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I334" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D335" s="2">
         <v>8</v>
@@ -13079,18 +13408,19 @@
       <c r="H335" s="2">
         <v>25</v>
       </c>
-      <c r="I335" s="7"/>
-      <c r="J335" s="7"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I335" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D336" s="2">
         <v>8</v>
@@ -13107,18 +13437,19 @@
       <c r="H336" s="2">
         <v>32</v>
       </c>
-      <c r="I336" s="7"/>
-      <c r="J336" s="7"/>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I336" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D337" s="2">
         <v>8</v>
@@ -13135,8 +13466,9 @@
       <c r="H337" s="2">
         <v>28</v>
       </c>
-      <c r="I337" s="7"/>
-      <c r="J337" s="7"/>
+      <c r="I337" s="2">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
